--- a/foundation/Data/data1.xlsx
+++ b/foundation/Data/data1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergiu.wittenberger\Documents\UiPath\Demo1Academy\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\uipath\RPAPlayGround\foundation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEFAE087-E86E-46E4-93E2-C9491FF9710B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9E9003-C9EA-4B4B-825E-CEDC05E38F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1F093E2F-01D9-4219-B3D5-F973E27F2526}"/>
+    <workbookView xWindow="9744" yWindow="4524" windowWidth="12972" windowHeight="7476" xr2:uid="{1F093E2F-01D9-4219-B3D5-F973E27F2526}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,16 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Founding Year</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ACME Corp</t>
   </si>
@@ -75,12 +66,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -108,7 +106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -124,7 +122,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,85 +418,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D462B817-548A-42E5-BC56-7145A0D43256}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.8984375" customWidth="1"/>
+    <col min="2" max="2" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1999</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2005</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1999</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1974</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2005</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1974</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2014</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2019</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>